--- a/Teileliste_neu20220131.xlsx
+++ b/Teileliste_neu20220131.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\nas2\maliemkama\Matthias\Honigautomat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\gesichert\GitHub\honigautomat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6A49203-696C-4940-9A4B-A757D5C337CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2642A467-BBFD-4859-B785-7D37E2BD9E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1785" yWindow="345" windowWidth="24690" windowHeight="11385" xr2:uid="{97770CAC-3B54-4B52-950E-CA345E4FEEE4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{97770CAC-3B54-4B52-950E-CA345E4FEEE4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="64">
   <si>
     <t>Bezeichnung</t>
   </si>
@@ -86,12 +86,6 @@
   </si>
   <si>
     <t>Hornbach</t>
-  </si>
-  <si>
-    <t>Drucktaster</t>
-  </si>
-  <si>
-    <t>https://www.amazon.de/gp/product/B00URDCBB6/ref=crt_ewc_img_oth_1?ie=UTF8&amp;psc=1&amp;smid=A29A2663YH483F</t>
   </si>
   <si>
     <t>https://www.amazon.de/gp/product/B01BI1G88C/ref=ox_sc_act_image_4?smid=A12WNK25ZOTW2F&amp;psc=1</t>
@@ -249,9 +243,6 @@
     <t>10 k Ohm Widerstand</t>
   </si>
   <si>
-    <t>DC DC down - Spannungswandler LM2596</t>
-  </si>
-  <si>
     <t>Platine / Breadboard 5x7 cm 1.6 mm</t>
   </si>
   <si>
@@ -259,6 +250,24 @@
   </si>
   <si>
     <t>Bestellbreite 100mm (Mindestmaas)</t>
+  </si>
+  <si>
+    <t>https://www.ebay.de/itm/184891176473</t>
+  </si>
+  <si>
+    <t>Power On (12v / 16mm)</t>
+  </si>
+  <si>
+    <t>Drucktaster (5v / 16 mm)</t>
+  </si>
+  <si>
+    <t>https://www.ebay.de/itm/203923479010</t>
+  </si>
+  <si>
+    <t>es geht auch ohne, dann eine leere Platine empfohlen</t>
+  </si>
+  <si>
+    <t>DC DC down - Spannungswandler LM2596s</t>
   </si>
 </sst>
 </file>
@@ -462,12 +471,12 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -477,7 +486,7 @@
     <xf numFmtId="8" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -505,13 +514,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -566,13 +575,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -627,13 +636,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -688,13 +697,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -749,13 +758,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -810,13 +819,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1170,10 +1179,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K57"/>
+  <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L47" sqref="L47"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1205,7 +1214,7 @@
       </c>
       <c r="G1" s="2">
         <f>SUM(F:F)</f>
-        <v>163.93</v>
+        <v>215.54</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1256,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="22">
-        <f t="shared" ref="F4:F13" si="0">D4*C4</f>
+        <f t="shared" ref="F4:F14" si="0">D4*C4</f>
         <v>2.99</v>
       </c>
       <c r="G4" s="3"/>
@@ -1288,20 +1297,20 @@
         <v>12</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>9</v>
+        <v>26.95</v>
       </c>
       <c r="E6" s="7">
         <v>0</v>
       </c>
       <c r="F6" s="22">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>26.95</v>
       </c>
       <c r="G6" s="3"/>
     </row>
@@ -1329,7 +1338,7 @@
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>13</v>
@@ -1393,15 +1402,15 @@
       </c>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="C11" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D11" s="7">
         <v>7.29</v>
@@ -1411,500 +1420,525 @@
       </c>
       <c r="F11" s="22">
         <f>D11*C11</f>
-        <v>7.29</v>
+        <v>36.450000000000003</v>
       </c>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="C12" s="6">
         <v>1</v>
       </c>
       <c r="D12" s="7">
-        <v>13.27</v>
+        <v>7.29</v>
       </c>
       <c r="E12" s="7">
         <v>0</v>
       </c>
       <c r="F12" s="22">
+        <f>D12*C12</f>
+        <v>7.29</v>
+      </c>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="6">
+        <v>1</v>
+      </c>
+      <c r="D13" s="7">
+        <v>13.27</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0</v>
+      </c>
+      <c r="F13" s="22">
         <f t="shared" si="0"/>
         <v>13.27</v>
       </c>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="6">
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:11" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="6">
         <v>5</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D14" s="7">
         <v>5.79</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E14" s="7">
         <v>0</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F14" s="22">
         <f t="shared" si="0"/>
         <v>28.95</v>
       </c>
-      <c r="G13" s="3"/>
-      <c r="K13" s="10"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="23">
+      <c r="G14" s="3"/>
+      <c r="K14" s="10"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="23">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" s="23">
+    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="23">
         <v>2.79</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="F16" s="23">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="23">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="17">
+    <row r="18" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="17">
         <v>1</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F18" s="23">
         <v>9.9499999999999993</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="F18" s="23">
-        <v>3.15</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F19" s="23">
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="23">
         <v>3.5</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="24"/>
-    </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="26"/>
-      <c r="B21" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="28">
-        <v>3.53</v>
-      </c>
-      <c r="E21" s="24"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="25"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
-      <c r="B22" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="27"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="24"/>
+      <c r="B22" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="28">
+        <v>3.53</v>
+      </c>
+      <c r="E22" s="25"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="26"/>
-      <c r="B23" s="14" t="s">
-        <v>24</v>
+      <c r="B23" s="11" t="s">
+        <v>38</v>
       </c>
       <c r="C23" s="27"/>
       <c r="D23" s="28"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="23">
-        <v>3.53</v>
-      </c>
-      <c r="G23">
-        <v>4.88</v>
-      </c>
+      <c r="E23" s="25"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="26"/>
-      <c r="B24" s="29" t="s">
-        <v>25</v>
+      <c r="B24" s="14" t="s">
+        <v>22</v>
       </c>
       <c r="C24" s="27"/>
       <c r="D24" s="28"/>
-      <c r="E24" s="24"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="23">
+        <v>3.53</v>
+      </c>
+      <c r="G24">
+        <v>4.88</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="26"/>
-      <c r="B25" s="11"/>
+      <c r="B25" s="24" t="s">
+        <v>23</v>
+      </c>
       <c r="C25" s="27"/>
       <c r="D25" s="28"/>
-      <c r="E25" s="24"/>
+      <c r="E25" s="25"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="26"/>
-      <c r="B26" s="13" t="s">
-        <v>26</v>
-      </c>
+      <c r="B26" s="11"/>
       <c r="C26" s="27"/>
       <c r="D26" s="28"/>
-      <c r="E26" s="24"/>
+      <c r="E26" s="25"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="26"/>
-      <c r="B27" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="28">
-        <v>6</v>
-      </c>
-      <c r="E27" s="24"/>
+      <c r="B27" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="27"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="25"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="26"/>
-      <c r="B28" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" s="27"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="24"/>
+      <c r="B28" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="28">
+        <v>6</v>
+      </c>
+      <c r="E28" s="25"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="26"/>
-      <c r="B29" s="14" t="s">
-        <v>24</v>
+      <c r="B29" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="C29" s="27"/>
       <c r="D29" s="28"/>
-      <c r="E29" s="24"/>
+      <c r="E29" s="25"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="26"/>
       <c r="B30" s="14" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C30" s="27"/>
       <c r="D30" s="28"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="23">
-        <v>6</v>
-      </c>
-      <c r="G30">
-        <v>7.26</v>
-      </c>
+      <c r="E30" s="25"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="26"/>
-      <c r="B31" s="11"/>
+      <c r="B31" s="14" t="s">
+        <v>26</v>
+      </c>
       <c r="C31" s="27"/>
       <c r="D31" s="28"/>
-      <c r="E31" s="24"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="23">
+        <v>6</v>
+      </c>
+      <c r="G31">
+        <v>7.26</v>
+      </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="26"/>
-      <c r="B32" s="13"/>
+      <c r="B32" s="11"/>
       <c r="C32" s="27"/>
       <c r="D32" s="28"/>
-      <c r="E32" s="24"/>
+      <c r="E32" s="25"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="26"/>
-      <c r="B33" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D33" s="28">
-        <v>6.28</v>
-      </c>
-      <c r="E33" s="24"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="25"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="26"/>
-      <c r="B34" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" s="27"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="23">
+      <c r="B34" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="28">
         <v>6.28</v>
       </c>
-      <c r="G34">
-        <v>9.7200000000000006</v>
-      </c>
+      <c r="E34" s="25"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="26"/>
-      <c r="B35" s="14" t="s">
-        <v>24</v>
+      <c r="B35" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="C35" s="27"/>
       <c r="D35" s="28"/>
-      <c r="E35" s="24"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="23">
+        <v>6.28</v>
+      </c>
+      <c r="G35">
+        <v>9.7200000000000006</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="26"/>
       <c r="B36" s="14" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="28"/>
-      <c r="E36" s="24"/>
+      <c r="E36" s="25"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="26"/>
-      <c r="B37" s="11"/>
+      <c r="B37" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="C37" s="27"/>
       <c r="D37" s="28"/>
-      <c r="E37" s="24"/>
+      <c r="E37" s="25"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="26"/>
-      <c r="B38" s="13" t="s">
-        <v>31</v>
-      </c>
+      <c r="B38" s="11"/>
       <c r="C38" s="27"/>
       <c r="D38" s="28"/>
-      <c r="E38" s="24"/>
+      <c r="E38" s="25"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="26"/>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C39" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="D39" s="28">
-        <v>2.16</v>
-      </c>
-      <c r="E39" s="24"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="25"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="26"/>
-      <c r="B40" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C40" s="27"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="23">
+      <c r="B40" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D40" s="28">
         <v>2.16</v>
       </c>
-      <c r="G40">
-        <v>3.36</v>
-      </c>
+      <c r="E40" s="25"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="26"/>
-      <c r="B41" s="14" t="s">
-        <v>33</v>
+      <c r="B41" s="11" t="s">
+        <v>40</v>
       </c>
       <c r="C41" s="27"/>
       <c r="D41" s="28"/>
-      <c r="E41" s="24"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="23">
+        <v>2.16</v>
+      </c>
+      <c r="G41">
+        <v>3.36</v>
+      </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="26"/>
       <c r="B42" s="14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C42" s="27"/>
       <c r="D42" s="28"/>
-      <c r="E42" s="24"/>
+      <c r="E42" s="25"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="26"/>
-      <c r="B43" s="11"/>
+      <c r="B43" s="14" t="s">
+        <v>32</v>
+      </c>
       <c r="C43" s="27"/>
       <c r="D43" s="28"/>
-      <c r="E43" s="24"/>
+      <c r="E43" s="25"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="26"/>
-      <c r="B44" s="13" t="s">
-        <v>35</v>
-      </c>
+      <c r="B44" s="11"/>
       <c r="C44" s="27"/>
       <c r="D44" s="28"/>
-      <c r="E44" s="24"/>
+      <c r="E44" s="25"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="25"/>
-      <c r="B45" s="25"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="24"/>
+      <c r="A45" s="26"/>
+      <c r="B45" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45" s="27"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="25"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="26"/>
-      <c r="B46" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C46" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D46" s="28">
-        <v>4.34</v>
-      </c>
-      <c r="E46" s="24"/>
+      <c r="A46" s="29"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="25"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="26"/>
-      <c r="B47" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C47" s="27"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="23">
+      <c r="B47" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C47" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D47" s="28">
         <v>4.34</v>
       </c>
-      <c r="G47">
-        <v>6.72</v>
-      </c>
+      <c r="E47" s="25"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="26"/>
-      <c r="B48" s="14" t="s">
-        <v>37</v>
+      <c r="B48" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="C48" s="27"/>
       <c r="D48" s="28"/>
-      <c r="E48" s="24"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="23">
+        <v>4.34</v>
+      </c>
+      <c r="G48">
+        <v>6.72</v>
+      </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="26"/>
       <c r="B49" s="14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C49" s="27"/>
       <c r="D49" s="28"/>
-      <c r="E49" s="24"/>
+      <c r="E49" s="25"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="26"/>
-      <c r="B50" s="11"/>
+      <c r="B50" s="14" t="s">
+        <v>36</v>
+      </c>
       <c r="C50" s="27"/>
       <c r="D50" s="28"/>
-      <c r="E50" s="24"/>
+      <c r="E50" s="25"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="26"/>
-      <c r="B51" s="13" t="s">
-        <v>39</v>
-      </c>
+      <c r="B51" s="11"/>
       <c r="C51" s="27"/>
       <c r="D51" s="28"/>
-      <c r="E51" s="24"/>
+      <c r="E51" s="25"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="25"/>
-      <c r="B52" s="25"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="25"/>
-      <c r="E52" s="24"/>
+      <c r="A52" s="26"/>
+      <c r="B52" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C52" s="27"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="25"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B53" s="16" t="s">
-        <v>47</v>
-      </c>
+      <c r="A53" s="29"/>
+      <c r="B53" s="29"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="25"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B54" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F54" s="23">
-        <v>2</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B55" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C55">
-        <v>1</v>
+        <v>46</v>
+      </c>
+      <c r="F55" s="23">
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B56" s="16" t="s">
-        <v>46</v>
+        <v>43</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B57" s="16" t="s">
-        <v>60</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B58" s="16" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="E39:E44"/>
-    <mergeCell ref="A27:A32"/>
-    <mergeCell ref="C27:C32"/>
-    <mergeCell ref="D27:D32"/>
-    <mergeCell ref="A33:A38"/>
-    <mergeCell ref="C33:C38"/>
-    <mergeCell ref="D33:D38"/>
-    <mergeCell ref="E33:E38"/>
-    <mergeCell ref="A39:A44"/>
-    <mergeCell ref="C39:C44"/>
-    <mergeCell ref="D39:D44"/>
-    <mergeCell ref="E20:E26"/>
-    <mergeCell ref="E27:E32"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="C21:C26"/>
-    <mergeCell ref="D21:D26"/>
-    <mergeCell ref="E45:E52"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A46:A51"/>
-    <mergeCell ref="C46:C51"/>
-    <mergeCell ref="D46:D51"/>
-    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="E46:E53"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:A52"/>
+    <mergeCell ref="C47:C52"/>
+    <mergeCell ref="D47:D52"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="E21:E27"/>
+    <mergeCell ref="E28:E33"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="C22:C27"/>
+    <mergeCell ref="D22:D27"/>
+    <mergeCell ref="E40:E45"/>
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="C28:C33"/>
+    <mergeCell ref="D28:D33"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="C34:C39"/>
+    <mergeCell ref="D34:D39"/>
+    <mergeCell ref="E34:E39"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="C40:C45"/>
+    <mergeCell ref="D40:D45"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" display="https://www.ebay.de/ulk/usr/add24_marco.ebersbach" xr:uid="{F70DF216-BE85-4716-BA3D-3B01FC614819}"/>
@@ -1915,15 +1949,15 @@
     <hyperlink ref="B8" r:id="rId6" xr:uid="{C6211C2A-5F66-4EA3-8F2D-F011DE016F41}"/>
     <hyperlink ref="B9" r:id="rId7" xr:uid="{4993A8DE-6E76-4236-829A-AE2DAF199D6D}"/>
     <hyperlink ref="B11" r:id="rId8" xr:uid="{65C0F70A-6855-429B-8C22-2B1B9988F505}"/>
-    <hyperlink ref="B12" r:id="rId9" xr:uid="{76F30790-6448-4176-8540-2A56567839E9}"/>
-    <hyperlink ref="B13" r:id="rId10" xr:uid="{0BF96E12-F51B-4072-A70B-22F4C71441DB}"/>
-    <hyperlink ref="B21" r:id="rId11" display="https://www.hornbach.de/shop/article/articleLink.html?articleNo=5194437" xr:uid="{905C9871-08D6-4776-991C-47C39803845D}"/>
-    <hyperlink ref="B27" r:id="rId12" display="https://www.hornbach.de/shop/article/articleLink.html?articleNo=5194437" xr:uid="{B025554A-6835-4D67-A53C-C0BCD0343488}"/>
-    <hyperlink ref="B33" r:id="rId13" display="https://www.hornbach.de/shop/article/articleLink.html?articleNo=6504526" xr:uid="{605FFA6B-1696-45B3-BDD6-191DE7DE2D68}"/>
-    <hyperlink ref="B39" r:id="rId14" display="https://www.hornbach.de/shop/article/articleLink.html?articleNo=6504526" xr:uid="{2C82C9A5-FD93-41C8-8591-FF3318BB9979}"/>
-    <hyperlink ref="B46" r:id="rId15" display="https://www.hornbach.de/shop/article/articleLink.html?articleNo=6504526" xr:uid="{64A282B7-EC5F-442D-8F44-DA4DEDBA6D65}"/>
-    <hyperlink ref="B18" r:id="rId16" xr:uid="{32A8FD11-113F-4FF9-9D33-F02CE8742860}"/>
-    <hyperlink ref="B19" r:id="rId17" xr:uid="{06375D87-F318-498C-8ED7-72A7EF44AF1B}"/>
+    <hyperlink ref="B13" r:id="rId9" xr:uid="{76F30790-6448-4176-8540-2A56567839E9}"/>
+    <hyperlink ref="B14" r:id="rId10" xr:uid="{0BF96E12-F51B-4072-A70B-22F4C71441DB}"/>
+    <hyperlink ref="B22" r:id="rId11" display="https://www.hornbach.de/shop/article/articleLink.html?articleNo=5194437" xr:uid="{905C9871-08D6-4776-991C-47C39803845D}"/>
+    <hyperlink ref="B28" r:id="rId12" display="https://www.hornbach.de/shop/article/articleLink.html?articleNo=5194437" xr:uid="{B025554A-6835-4D67-A53C-C0BCD0343488}"/>
+    <hyperlink ref="B34" r:id="rId13" display="https://www.hornbach.de/shop/article/articleLink.html?articleNo=6504526" xr:uid="{605FFA6B-1696-45B3-BDD6-191DE7DE2D68}"/>
+    <hyperlink ref="B40" r:id="rId14" display="https://www.hornbach.de/shop/article/articleLink.html?articleNo=6504526" xr:uid="{2C82C9A5-FD93-41C8-8591-FF3318BB9979}"/>
+    <hyperlink ref="B47" r:id="rId15" display="https://www.hornbach.de/shop/article/articleLink.html?articleNo=6504526" xr:uid="{64A282B7-EC5F-442D-8F44-DA4DEDBA6D65}"/>
+    <hyperlink ref="B19" r:id="rId16" xr:uid="{32A8FD11-113F-4FF9-9D33-F02CE8742860}"/>
+    <hyperlink ref="B20" r:id="rId17" xr:uid="{06375D87-F318-498C-8ED7-72A7EF44AF1B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="56" orientation="portrait" r:id="rId18"/>
